--- a/data/trans_camb/P20B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P20B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,56; 15,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,78; 20,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,88; 23,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,59; 9,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,76; 20,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,92; 5,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,0; 8,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,52; 15,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,64; 9,71</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,67%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,24; 83,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,01; 110,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,14; 119,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,04; 42,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,55; 82,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,02; 21,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,85; 35,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,97; 61,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,48; 40,03</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,11</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,8</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,41</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,32</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,17; 24,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,79; 35,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 27,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 18,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,12; 20,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,15; 21,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,74; 18,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,24; 23,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,55; 22,74</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,43%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,38; 200,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,9; 318,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,69; 245,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 210,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,3; 246,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,64; 263,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,26; 176,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,98; 218,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,72; 215,25</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,72</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,13</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,38; 27,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,81; 7,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,65; 17,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,97; 24,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,76; 3,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,77; 18,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,86; 16,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,34; -0,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,04; 14,55</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,62%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,64%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,95%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 257,62</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-89,34; 46,89</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-64,44; 89,06</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-50,08; 537,43</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,94; 490,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,11; 111,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,82; 9,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,35; 113,35</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,19</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,96; 12,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 18,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,87; 16,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 11,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; 12,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,16; 9,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 9,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 12,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 11,51</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,26%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,79; 59,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,49; 83,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,24; 79,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,73; 70,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,13; 72,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,87; 56,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 51,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 63,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 59,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,64</t>
+          <t>-7,55</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,54</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 23,22</t>
+          <t>-7,06; 22,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,92; 5,08</t>
+          <t>-21,19; 5,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 9,71</t>
+          <t>-10,8; 9,81</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-24,13%</t>
+          <t>-23,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-1,67%</t>
+          <t>-1,83%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 119,67</t>
+          <t>-22,34; 119,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,02; 21,5</t>
+          <t>-54,22; 22,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 40,03</t>
+          <t>-31,49; 40,52</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,32</t>
+          <t>13,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,8</t>
+          <t>11,99</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,83</t>
+          <t>14,07</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 27,99</t>
+          <t>-2,45; 28,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 21,97</t>
+          <t>2,31; 21,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,55; 22,74</t>
+          <t>5,83; 23,15</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>62,69%</t>
+          <t>63,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>94,56%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>92,43%</t>
+          <t>94,02%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 245,26</t>
+          <t>-8,66; 249,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,64; 263,32</t>
+          <t>11,97; 267,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,72; 215,25</t>
+          <t>26,7; 217,55</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,56</t>
+          <t>-7,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,63</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-34,65; 17,47</t>
+          <t>-35,01; 17,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 18,0</t>
+          <t>-11,07; 18,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 14,55</t>
+          <t>-14,93; 14,74</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-20,62%</t>
+          <t>-20,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>38,83%</t>
+          <t>42,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>2,86%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-64,44; 89,06</t>
+          <t>-64,85; 90,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,94; 490,86</t>
+          <t>-51,95; 497,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,35; 113,35</t>
+          <t>-49,14; 112,42</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>5,39</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 16,82</t>
+          <t>-2,94; 16,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 9,25</t>
+          <t>-3,74; 9,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 11,51</t>
+          <t>-0,2; 11,88</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>24,17%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 79,34</t>
+          <t>-9,48; 79,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 56,75</t>
+          <t>-15,65; 58,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 59,02</t>
+          <t>-0,83; 60,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 15,8</t>
+          <t>-12,89; 16,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 20,91</t>
+          <t>-11,7; 19,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 22,83</t>
+          <t>-7,35; 22,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 9,67</t>
+          <t>-15,42; 9,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 20,4</t>
+          <t>-9,56; 19,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 5,06</t>
+          <t>-20,31; 4,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 8,64</t>
+          <t>-9,25; 9,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 15,25</t>
+          <t>-5,73; 16,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 9,81</t>
+          <t>-9,79; 9,43</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-35,24; 83,35</t>
+          <t>-37,57; 85,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,01; 110,81</t>
+          <t>-35,72; 106,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 119,08</t>
+          <t>-22,54; 117,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,04; 42,28</t>
+          <t>-40,77; 38,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 82,93</t>
+          <t>-25,54; 78,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,22; 22,92</t>
+          <t>-53,79; 17,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,85; 35,45</t>
+          <t>-27,51; 38,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 61,44</t>
+          <t>-16,69; 66,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 40,52</t>
+          <t>-28,5; 38,35</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 24,81</t>
+          <t>-5,63; 24,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 35,64</t>
+          <t>3,65; 36,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 28,06</t>
+          <t>-3,77; 27,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 18,06</t>
+          <t>-0,35; 17,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 20,81</t>
+          <t>1,64; 21,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 21,92</t>
+          <t>2,36; 22,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 18,77</t>
+          <t>2,54; 17,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 23,79</t>
+          <t>6,61; 23,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,83; 23,15</t>
+          <t>6,36; 22,45</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 200,3</t>
+          <t>-19,09; 204,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,9; 318,07</t>
+          <t>9,0; 298,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 249,92</t>
+          <t>-13,63; 236,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 210,19</t>
+          <t>-2,65; 213,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,3; 246,11</t>
+          <t>5,69; 257,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,97; 267,66</t>
+          <t>6,59; 257,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,26; 176,85</t>
+          <t>10,08; 159,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,98; 218,28</t>
+          <t>29,78; 203,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,7; 217,55</t>
+          <t>28,19; 201,42</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-43,38; 27,98</t>
+          <t>-43,15; 29,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-44,81; 7,67</t>
+          <t>-46,35; 5,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-35,01; 17,58</t>
+          <t>-34,93; 19,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 24,45</t>
+          <t>-7,73; 26,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 3,8</t>
+          <t>-24,54; 2,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 18,67</t>
+          <t>-10,57; 17,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 16,17</t>
+          <t>-15,75; 18,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-26,34; -0,27</t>
+          <t>-27,44; -1,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 14,74</t>
+          <t>-15,36; 14,26</t>
         </is>
       </c>
     </row>
@@ -1223,22 +1223,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 257,62</t>
+          <t>-100,0; 234,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-89,34; 46,89</t>
+          <t>-91,24; 31,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-64,85; 90,29</t>
+          <t>-65,11; 93,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,08; 537,43</t>
+          <t>-47,87; 555,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,95; 497,95</t>
+          <t>-50,25; 455,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-56,11; 111,36</t>
+          <t>-57,74; 137,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-87,82; 9,71</t>
+          <t>-87,29; 0,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,14; 112,42</t>
+          <t>-49,53; 100,41</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 12,81</t>
+          <t>-7,49; 14,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 18,37</t>
+          <t>-2,81; 17,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 16,81</t>
+          <t>-1,95; 17,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 11,79</t>
+          <t>-2,49; 11,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 12,1</t>
+          <t>-3,16; 11,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 9,52</t>
+          <t>-4,44; 9,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 9,59</t>
+          <t>-1,72; 9,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 12,17</t>
+          <t>-1,01; 11,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 11,88</t>
+          <t>-0,48; 11,19</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 59,25</t>
+          <t>-23,97; 69,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 83,04</t>
+          <t>-9,03; 80,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 79,94</t>
+          <t>-5,87; 87,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 70,51</t>
+          <t>-10,01; 71,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 72,99</t>
+          <t>-14,03; 67,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 58,61</t>
+          <t>-18,63; 54,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 51,64</t>
+          <t>-6,71; 49,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 63,27</t>
+          <t>-3,63; 60,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 60,79</t>
+          <t>-1,91; 58,05</t>
         </is>
       </c>
     </row>
